--- a/team_specific_matrix/Marquette_B.xlsx
+++ b/team_specific_matrix/Marquette_B.xlsx
@@ -501,7 +501,7 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="C2">
-        <v>0.6143790849673203</v>
+        <v>0.6225490196078431</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1372549019607843</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0718954248366013</v>
+        <v>0.06862745098039216</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0101010101010101</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C3">
-        <v>0.06060606060606061</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7474747474747475</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1818181818181818</v>
+        <v>0.1590909090909091</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03870967741935484</v>
+        <v>0.035</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01290322580645161</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04516129032258064</v>
+        <v>0.065</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.232258064516129</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04516129032258064</v>
+        <v>0.035</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1161290322580645</v>
+        <v>0.12</v>
       </c>
       <c r="R6">
-        <v>0.06451612903225806</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6">
-        <v>0.4451612903225807</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07407407407407407</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01851851851851852</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09259259259259259</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08333333333333333</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009259259259259259</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1388888888888889</v>
+        <v>0.1376811594202899</v>
       </c>
       <c r="R7">
-        <v>0.1018518518518518</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="S7">
-        <v>0.4814814814814815</v>
+        <v>0.4927536231884058</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05813953488372093</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02034883720930233</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08139534883720931</v>
+        <v>0.078125</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1162790697674419</v>
+        <v>0.1138392857142857</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02325581395348837</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1831395348837209</v>
+        <v>0.1875</v>
       </c>
       <c r="R8">
-        <v>0.09011627906976744</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="S8">
-        <v>0.4273255813953488</v>
+        <v>0.4330357142857143</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05952380952380952</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005952380952380952</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07738095238095238</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01785714285714286</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1488095238095238</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="R9">
-        <v>0.1726190476190476</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="S9">
-        <v>0.375</v>
+        <v>0.411214953271028</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09903381642512077</v>
+        <v>0.09924385633270322</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0108695652173913</v>
+        <v>0.01417769376181474</v>
       </c>
       <c r="E10">
-        <v>0.002415458937198068</v>
+        <v>0.001890359168241966</v>
       </c>
       <c r="F10">
-        <v>0.06884057971014493</v>
+        <v>0.0661625708884688</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1002415458937198</v>
+        <v>0.113421550094518</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01811594202898551</v>
+        <v>0.01890359168241966</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1847826086956522</v>
+        <v>0.1852551984877127</v>
       </c>
       <c r="R10">
-        <v>0.09420289855072464</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.4214975845410628</v>
+        <v>0.4139886578449906</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.006060606060606061</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="G11">
-        <v>0.1515151515151515</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0.0963302752293578</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L11">
-        <v>0.5454545454545454</v>
+        <v>0.518348623853211</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006060606060606061</v>
+        <v>0.004587155963302753</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7684210526315789</v>
+        <v>0.7627118644067796</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1894736842105263</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04210526315789474</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6363636363636364</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3181818181818182</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0272108843537415</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1496598639455782</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="I15">
-        <v>0.108843537414966</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J15">
-        <v>0.2517006802721088</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="K15">
-        <v>0.06802721088435375</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006802721088435374</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04761904761904762</v>
+        <v>0.04</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3401360544217687</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009433962264150943</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1886792452830189</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.1226415094339623</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="J16">
-        <v>0.4528301886792453</v>
+        <v>0.4413793103448276</v>
       </c>
       <c r="K16">
-        <v>0.08490566037735849</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04716981132075472</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09433962264150944</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01090909090909091</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2145454545454545</v>
+        <v>0.2244318181818182</v>
       </c>
       <c r="I17">
-        <v>0.1090909090909091</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="J17">
-        <v>0.3890909090909091</v>
+        <v>0.3892045454545455</v>
       </c>
       <c r="K17">
-        <v>0.05818181818181818</v>
+        <v>0.07102272727272728</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02181818181818182</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07636363636363637</v>
+        <v>0.0625</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.12</v>
+        <v>0.1164772727272727</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01265822784810127</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2025316455696203</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I18">
-        <v>0.08227848101265822</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="J18">
-        <v>0.4430379746835443</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="K18">
-        <v>0.08227848101265822</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03164556962025317</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05696202531645569</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08860759493670886</v>
+        <v>0.08465608465608465</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01219512195121951</v>
+        <v>0.01222707423580786</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2317073170731707</v>
+        <v>0.2358078602620087</v>
       </c>
       <c r="I19">
-        <v>0.1075388026607539</v>
+        <v>0.1048034934497817</v>
       </c>
       <c r="J19">
-        <v>0.3891352549889135</v>
+        <v>0.3851528384279476</v>
       </c>
       <c r="K19">
-        <v>0.08980044345898004</v>
+        <v>0.09082969432314411</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01108647450110865</v>
+        <v>0.01222707423580786</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0598669623059867</v>
+        <v>0.05764192139737991</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09866962305986696</v>
+        <v>0.1013100436681223</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Marquette_B.xlsx
+++ b/team_specific_matrix/Marquette_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1764705882352941</v>
+        <v>0.1861471861471861</v>
       </c>
       <c r="C2">
-        <v>0.6225490196078431</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004901960784313725</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1274509803921569</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06862745098039216</v>
+        <v>0.0735930735930736</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007575757575757576</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C3">
-        <v>0.04545454545454546</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7878787878787878</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1590909090909091</v>
+        <v>0.1468531468531468</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.035</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.065</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.035</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.12</v>
+        <v>0.1205357142857143</v>
       </c>
       <c r="R6">
-        <v>0.07000000000000001</v>
+        <v>0.0625</v>
       </c>
       <c r="S6">
-        <v>0.415</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07246376811594203</v>
+        <v>0.06369426751592357</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01449275362318841</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08695652173913043</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08695652173913043</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007246376811594203</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1376811594202899</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="R7">
-        <v>0.1014492753623188</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="S7">
-        <v>0.4927536231884058</v>
+        <v>0.4840764331210191</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06696428571428571</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01785714285714286</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.078125</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1138392857142857</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01785714285714286</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1875</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="R8">
-        <v>0.08482142857142858</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S8">
-        <v>0.4330357142857143</v>
+        <v>0.4325396825396826</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07009345794392523</v>
+        <v>0.0860655737704918</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004672897196261682</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07476635514018691</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1542056074766355</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01401869158878505</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1261682242990654</v>
+        <v>0.1270491803278689</v>
       </c>
       <c r="R9">
-        <v>0.1448598130841121</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="S9">
-        <v>0.411214953271028</v>
+        <v>0.4098360655737705</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09924385633270322</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01417769376181474</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="E10">
-        <v>0.001890359168241966</v>
+        <v>0.001680672268907563</v>
       </c>
       <c r="F10">
-        <v>0.0661625708884688</v>
+        <v>0.06386554621848739</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.113421550094518</v>
+        <v>0.1168067226890756</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01890359168241966</v>
+        <v>0.01848739495798319</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1852551984877127</v>
+        <v>0.1907563025210084</v>
       </c>
       <c r="R10">
-        <v>0.08695652173913043</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S10">
-        <v>0.4139886578449906</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004587155963302753</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="G11">
-        <v>0.1559633027522936</v>
+        <v>0.157258064516129</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0963302752293578</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="K11">
-        <v>0.2201834862385321</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="L11">
-        <v>0.518348623853211</v>
+        <v>0.5080645161290323</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004587155963302753</v>
+        <v>0.004032258064516129</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7627118644067796</v>
+        <v>0.7557251908396947</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2033898305084746</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03389830508474576</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6785714285714286</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02857142857142857</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1657142857142857</v>
+        <v>0.1743589743589744</v>
       </c>
       <c r="I15">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.2342857142857143</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K15">
-        <v>0.06857142857142857</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005714285714285714</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3142857142857143</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01379310344827586</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="I16">
-        <v>0.1241379310344828</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="J16">
-        <v>0.4413793103448276</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="K16">
-        <v>0.06896551724137931</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006896551724137931</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04137931034482759</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.103448275862069</v>
+        <v>0.09876543209876543</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01136363636363636</v>
+        <v>0.009975062344139651</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2244318181818182</v>
+        <v>0.2319201995012469</v>
       </c>
       <c r="I17">
-        <v>0.1022727272727273</v>
+        <v>0.114713216957606</v>
       </c>
       <c r="J17">
-        <v>0.3892045454545455</v>
+        <v>0.3790523690773067</v>
       </c>
       <c r="K17">
-        <v>0.07102272727272728</v>
+        <v>0.06483790523690773</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02272727272727273</v>
+        <v>0.02493765586034913</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0625</v>
+        <v>0.05735660847880299</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1164772727272727</v>
+        <v>0.1172069825436409</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02645502645502645</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2222222222222222</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="I18">
-        <v>0.07936507936507936</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="J18">
-        <v>0.4126984126984127</v>
+        <v>0.3944954128440367</v>
       </c>
       <c r="K18">
-        <v>0.08465608465608465</v>
+        <v>0.0963302752293578</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03174603174603174</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0582010582010582</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08465608465608465</v>
+        <v>0.08256880733944955</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01222707423580786</v>
+        <v>0.01249024199843872</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2358078602620087</v>
+        <v>0.2318501170960187</v>
       </c>
       <c r="I19">
-        <v>0.1048034934497817</v>
+        <v>0.1053864168618267</v>
       </c>
       <c r="J19">
-        <v>0.3851528384279476</v>
+        <v>0.3856362217017955</v>
       </c>
       <c r="K19">
-        <v>0.09082969432314411</v>
+        <v>0.09055425448868072</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01222707423580786</v>
+        <v>0.01327088212334114</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05764192139737991</v>
+        <v>0.05776736924277908</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1013100436681223</v>
+        <v>0.1030444964871194</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Marquette_B.xlsx
+++ b/team_specific_matrix/Marquette_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1861471861471861</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="C2">
-        <v>0.5974025974025974</v>
+        <v>0.5875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008658008658008658</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1341991341991342</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0735930735930736</v>
+        <v>0.07916666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006993006993006993</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C3">
-        <v>0.04195804195804196</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8041958041958042</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1468531468531468</v>
+        <v>0.1438356164383562</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03571428571428571</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008928571428571428</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06696428571428571</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2589285714285715</v>
+        <v>0.2554112554112554</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04017857142857143</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1205357142857143</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="R6">
-        <v>0.0625</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="S6">
-        <v>0.40625</v>
+        <v>0.4155844155844156</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06369426751592357</v>
+        <v>0.0625</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01273885350318471</v>
+        <v>0.0125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09554140127388536</v>
+        <v>0.09375</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08917197452229299</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006369426751592357</v>
+        <v>0.00625</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1401273885350318</v>
+        <v>0.14375</v>
       </c>
       <c r="R7">
-        <v>0.1082802547770701</v>
+        <v>0.1125</v>
       </c>
       <c r="S7">
-        <v>0.4840764331210191</v>
+        <v>0.48125</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06944444444444445</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01587301587301587</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07738095238095238</v>
+        <v>0.07854406130268199</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111111</v>
+        <v>0.1130268199233716</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01587301587301587</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1825396825396825</v>
+        <v>0.1800766283524904</v>
       </c>
       <c r="R8">
-        <v>0.09523809523809523</v>
+        <v>0.09386973180076628</v>
       </c>
       <c r="S8">
-        <v>0.4325396825396826</v>
+        <v>0.4348659003831418</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0860655737704918</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004098360655737705</v>
+        <v>0.004</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08196721311475409</v>
+        <v>0.08</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.139344262295082</v>
+        <v>0.144</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01229508196721311</v>
+        <v>0.012</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1270491803278689</v>
+        <v>0.128</v>
       </c>
       <c r="R9">
-        <v>0.139344262295082</v>
+        <v>0.144</v>
       </c>
       <c r="S9">
-        <v>0.4098360655737705</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09411764705882353</v>
+        <v>0.09332260659694289</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01428571428571429</v>
+        <v>0.01367658889782784</v>
       </c>
       <c r="E10">
-        <v>0.001680672268907563</v>
+        <v>0.001609010458567981</v>
       </c>
       <c r="F10">
-        <v>0.06386554621848739</v>
+        <v>0.06355591311343524</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1168067226890756</v>
+        <v>0.1206757843925985</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01848739495798319</v>
+        <v>0.01930812550281577</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1907563025210084</v>
+        <v>0.1898632341110217</v>
       </c>
       <c r="R10">
-        <v>0.08823529411764706</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S10">
-        <v>0.4117647058823529</v>
+        <v>0.4070796460176991</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004032258064516129</v>
+        <v>0.003891050583657588</v>
       </c>
       <c r="G11">
-        <v>0.157258064516129</v>
+        <v>0.1556420233463035</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1008064516129032</v>
+        <v>0.1011673151750973</v>
       </c>
       <c r="K11">
-        <v>0.2258064516129032</v>
+        <v>0.2217898832684825</v>
       </c>
       <c r="L11">
-        <v>0.5080645161290323</v>
+        <v>0.5136186770428015</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004032258064516129</v>
+        <v>0.003891050583657588</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7557251908396947</v>
+        <v>0.7299270072992701</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2137404580152672</v>
+        <v>0.2335766423357664</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="L12">
-        <v>0.03053435114503817</v>
+        <v>0.0291970802919708</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7058823529411765</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2352941176470588</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02564102564102564</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1743589743589744</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="I15">
-        <v>0.1333333333333333</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="J15">
-        <v>0.2307692307692308</v>
+        <v>0.2266009852216749</v>
       </c>
       <c r="K15">
-        <v>0.07692307692307693</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005128205128205128</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04615384615384616</v>
+        <v>0.04433497536945813</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3076923076923077</v>
+        <v>0.3054187192118227</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01851851851851852</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1975308641975309</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="I16">
-        <v>0.1172839506172839</v>
+        <v>0.1144578313253012</v>
       </c>
       <c r="J16">
-        <v>0.4567901234567901</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="K16">
-        <v>0.06790123456790123</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006172839506172839</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03703703703703703</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09876543209876543</v>
+        <v>0.1024096385542169</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009975062344139651</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2319201995012469</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="I17">
-        <v>0.114713216957606</v>
+        <v>0.1132530120481928</v>
       </c>
       <c r="J17">
-        <v>0.3790523690773067</v>
+        <v>0.3783132530120482</v>
       </c>
       <c r="K17">
-        <v>0.06483790523690773</v>
+        <v>0.06506024096385542</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02493765586034913</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05735660847880299</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1172069825436409</v>
+        <v>0.1180722891566265</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02293577981651376</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2201834862385321</v>
+        <v>0.2164502164502164</v>
       </c>
       <c r="I18">
-        <v>0.09174311926605505</v>
+        <v>0.09956709956709957</v>
       </c>
       <c r="J18">
-        <v>0.3944954128440367</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="K18">
-        <v>0.0963302752293578</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03211009174311927</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05963302752293578</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08256880733944955</v>
+        <v>0.07792207792207792</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01249024199843872</v>
+        <v>0.01210287443267776</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2318501170960187</v>
+        <v>0.2329803328290469</v>
       </c>
       <c r="I19">
-        <v>0.1053864168618267</v>
+        <v>0.1021180030257186</v>
       </c>
       <c r="J19">
-        <v>0.3856362217017955</v>
+        <v>0.3872919818456884</v>
       </c>
       <c r="K19">
-        <v>0.09055425448868072</v>
+        <v>0.09001512859304085</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01327088212334114</v>
+        <v>0.01285930408472012</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05776736924277908</v>
+        <v>0.05824508320726172</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1030444964871194</v>
+        <v>0.1043872919818457</v>
       </c>
     </row>
   </sheetData>
